--- a/download/zakazi.xlsx
+++ b/download/zakazi.xlsx
@@ -226,8 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +572,8 @@
   <dimension ref="A1:Q6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="17" width="30" customWidth="1"/>
+    <col min="1" max="9" width="30" customWidth="1"/>
+    <col min="10" max="17" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -602,10 +604,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -652,10 +654,10 @@
       <c r="I2">
         <v>62500</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>812500</v>
       </c>
       <c r="L2" t="s">
@@ -681,7 +683,7 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>43836.79166666667</v>
       </c>
       <c r="D3" t="s">
@@ -702,10 +704,10 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>55745</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>55745</v>
       </c>
       <c r="L3" t="s">
@@ -731,7 +733,7 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>44049.79166666667</v>
       </c>
       <c r="D4" t="s">
@@ -752,10 +754,10 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>70761123</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>70761123</v>
       </c>
       <c r="L4" t="s">
@@ -781,7 +783,7 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>44140.79166666667</v>
       </c>
       <c r="D5" t="s">
@@ -802,10 +804,10 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>1308536</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1308536</v>
       </c>
       <c r="L5" t="s">
@@ -831,7 +833,7 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>44011</v>
       </c>
       <c r="D6" t="s">
@@ -852,10 +854,10 @@
       <c r="I6">
         <v>230000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>13.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>3105000</v>
       </c>
       <c r="L6" t="s">

--- a/download/zakazi.xlsx
+++ b/download/zakazi.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Заказчик (наименование)</t>
   </si>
   <si>
+    <t>Заказчик (ИНН)</t>
+  </si>
+  <si>
     <t>Номер договора/контракта  в ЕИС</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>Место регистрации контрагента (указывается субъект РФ)</t>
   </si>
   <si>
+    <t>ГРБС</t>
+  </si>
+  <si>
     <t>ГОСУДАРСТВЕННОЕ АВТОНОМНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ СВЕРДЛОВСКОЙ ОБЛАСТИ "АРТИНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
   </si>
   <si>
@@ -191,6 +197,42 @@
   </si>
   <si>
     <t>6671104721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Государственное бюджетное учреждение "Оператор электронного правительства" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6671352361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2665841709820000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Закупка у единственного поставщика (исполнителя, подрядчика)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Маска одноразовая медицинская на резинке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Сведения отсутствуют</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИКА Е"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6671104721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Свердловская область</t>
+  </si>
+  <si>
+    <t>Департамент информатизации и связи</t>
   </si>
 </sst>
 </file>
@@ -569,14 +611,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="9" width="30" customWidth="1"/>
-    <col min="10" max="17" width="30" style="1" customWidth="1"/>
+    <col min="1" max="10" width="30" customWidth="1"/>
+    <col min="11" max="19" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,13 +646,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -628,252 +670,317 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>62500</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>812500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43836.79166666667</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>62500</v>
-      </c>
-      <c r="J2" s="1">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1">
-        <v>812500</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43836.79166666667</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
         <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>55745</v>
       </c>
       <c r="K3" s="1">
         <v>55745</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1">
+        <v>55745</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44049.79166666667</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44049.79166666667</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
         <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>70761123</v>
       </c>
       <c r="K4" s="1">
         <v>70761123</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
+      <c r="L4" s="1">
+        <v>70761123</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
         <v>43</v>
       </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2">
         <v>44140.79166666667</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5">
         <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1308536</v>
       </c>
       <c r="K5" s="1">
         <v>1308536</v>
       </c>
-      <c r="L5" t="s">
-        <v>48</v>
+      <c r="L5" s="1">
+        <v>1308536</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
         <v>50</v>
       </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
         <v>44011</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
         <v>230000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>13.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>3105000</v>
       </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44026.79166666667</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>2300000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>31050000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
